--- a/Raport miesięczny1.xlsx
+++ b/Raport miesięczny1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\Macro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC599EEA-9882-4F7B-BFC6-BCDA899FF34E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B6532A-A8C4-4FC7-9054-8362F6A3301F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4590" yWindow="4590" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>BALT ASSISTANCE</t>
   </si>
@@ -90,9 +90,6 @@
     <t>111111</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>neurolog</t>
   </si>
   <si>
@@ -127,6 +124,30 @@
   </si>
   <si>
     <t>Jan Raczek</t>
+  </si>
+  <si>
+    <t>ginekolog + USG</t>
+  </si>
+  <si>
+    <t>Test asdas</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>Maria Maryna</t>
+  </si>
+  <si>
+    <t>ortopeda + RTG</t>
+  </si>
+  <si>
+    <t>asd asd</t>
+  </si>
+  <si>
+    <t>Scanmed B12, ul. Adama Bochenka 12,  30-693 Kraków</t>
+  </si>
+  <si>
+    <t>sdads asdsda</t>
   </si>
 </sst>
 </file>
@@ -628,7 +649,7 @@
   <dimension ref="A1:L1234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J3" sqref="J1:J1048576"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,9 +770,7 @@
       <c r="I4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="J4" s="20"/>
       <c r="K4" s="3"/>
       <c r="L4" s="5"/>
     </row>
@@ -769,10 +788,10 @@
         <v>35106</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2">
         <v>43585</v>
@@ -781,11 +800,9 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
-      <c r="J5" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="J5" s="20"/>
       <c r="K5" s="3"/>
       <c r="L5" s="5"/>
     </row>
@@ -794,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>16</v>
@@ -803,10 +820,10 @@
         <v>32184</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2">
         <v>43597</v>
@@ -815,11 +832,9 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
-      <c r="J6" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="J6" s="20"/>
       <c r="K6" s="3"/>
       <c r="L6" s="5"/>
     </row>
@@ -828,7 +843,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>16</v>
@@ -837,10 +852,10 @@
         <v>32184</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2">
         <v>43629</v>
@@ -849,11 +864,9 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-      <c r="J7" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="J7" s="20"/>
       <c r="K7" s="3"/>
       <c r="L7" s="5"/>
     </row>
@@ -862,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>16</v>
@@ -871,7 +884,7 @@
         <v>32184</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>18</v>
@@ -883,52 +896,104 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="I8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12">
+        <v>32184</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="20" t="s">
-        <v>21</v>
+      <c r="F9" s="18" t="s">
+        <v>18</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="18"/>
+      <c r="G9" s="12">
+        <v>43781</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="J9" s="18"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="18"/>
+    <row r="10" spans="1:12" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="12">
+        <v>32184</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="12">
+        <v>43780</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="J10" s="18"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="18"/>
+    <row r="11" spans="1:12" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>8</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="12">
+        <v>32184</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="12">
+        <v>43781</v>
+      </c>
+      <c r="H11" s="23">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="J11" s="18"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
